--- a/PANAMÁ/Género/Protección infantil y género Unicef 2019 Panamá.xlsx
+++ b/PANAMÁ/Género/Protección infantil y género Unicef 2019 Panamá.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\PANAMÁ\Género\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C70B306-A6E6-4DC6-AD2B-BA8FADF94892}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C96E1D-976A-4CA7-A478-21AA00391696}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8B859529-1372-45A7-8F7A-15D081915221}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
   <si>
     <r>
       <t>Matrimonio infantil (%)</t>
@@ -485,37 +485,46 @@
     <t>Cantidad</t>
   </si>
   <si>
-    <t>Matrimonio infantil (%)+ 2012–2018*:</t>
-  </si>
-  <si>
-    <t>Mujeres casadas a los 15</t>
-  </si>
-  <si>
-    <t>Mujeres casadas a los 18</t>
-  </si>
-  <si>
-    <t>Justificación del maltrato a la esposa entre los adolescentes (%)+  2012–2018*,</t>
-  </si>
-  <si>
-    <t>Hombres casados a los 18</t>
-  </si>
-  <si>
     <t>Hombres</t>
   </si>
   <si>
     <t>Mujeres</t>
   </si>
   <si>
-    <t>Violencia sexual en la infancia (%) 2012–2018*,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trabajo infantil (%)+2010–2018*, </t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>Disciplina violenta (%)+2012–2018*</t>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Matrimonio infantil (%)</t>
+  </si>
+  <si>
+    <t>2012–2018*</t>
+  </si>
+  <si>
+    <t>casadas a los 15</t>
+  </si>
+  <si>
+    <t>casadas a los 18</t>
+  </si>
+  <si>
+    <t>Justificación del maltrato a la esposa entre los adolescentes (%)</t>
+  </si>
+  <si>
+    <t>Violencia sexual en la infancia (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Violencia sexual en la infancia (%) </t>
+  </si>
+  <si>
+    <t>Trabajo infantil (%)</t>
+  </si>
+  <si>
+    <t>Disciplina violenta (%)</t>
   </si>
 </sst>
 </file>
@@ -637,7 +646,7 @@
     <cellStyle name="Normal_review on CRING-07 CP dates and source CC (29 May 2007)" xfId="2" xr:uid="{7D3B586B-7DAC-4751-B992-1ADEB068F304}"/>
     <cellStyle name="Normal_Table 9 Child protection SOWC 2005" xfId="1" xr:uid="{C0E7EAF6-59C1-44D1-AC08-216CAF5DDC1C}"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
     <dxf>
       <font>
         <b val="0"/>
@@ -733,6 +742,44 @@
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -747,11 +794,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{471CE110-09E9-4A9C-BA56-7FB36E331F20}" name="Tabla1" displayName="Tabla1" ref="A1:C14" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:C14" xr:uid="{F35FA324-BF87-4C66-9F05-B1469CF5697C}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{471CE110-09E9-4A9C-BA56-7FB36E331F20}" name="Tabla1" displayName="Tabla1" ref="A1:E14" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E14" xr:uid="{F35FA324-BF87-4C66-9F05-B1469CF5697C}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D6D3523E-1A9E-48CE-B16D-8381E86DC424}" name="Categoría" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{DC63531F-BA77-474A-9D1E-9337255C4440}" name="Variable" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{291F4642-DCF1-44AC-84EA-B659E7828E73}" name="Sexo" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{EA1F4382-166A-48C9-AA4F-A8D0FD14AE86}" name="Fecha" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{B9A83361-33C4-40F2-B610-11D430D34CB7}" name="Cantidad" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1153,19 +1202,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086AB14F-7EE7-4752-8776-ABC71B0E10C2}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C14"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="1" max="1" width="43" customWidth="1"/>
+    <col min="2" max="4" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>39</v>
       </c>
@@ -1173,133 +1222,197 @@
         <v>40</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="12">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="12">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="D4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="12">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="D6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="12">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="D7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="12">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="12">
-        <v>26.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="D9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="12"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="12"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="D10" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="12">
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="12"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="12" t="s">
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="12">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="12"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="12"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="12" t="s">
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="12"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="12"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="12"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="12">
+      <c r="E14" s="12">
         <v>8.6999999999999993</v>
       </c>
     </row>

--- a/PANAMÁ/Género/Protección infantil y género Unicef 2019 Panamá.xlsx
+++ b/PANAMÁ/Género/Protección infantil y género Unicef 2019 Panamá.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\PANAMÁ\Género\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C96E1D-976A-4CA7-A478-21AA00391696}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C42B8CC-9D27-485B-89A2-73EAD2294DF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8B859529-1372-45A7-8F7A-15D081915221}"/>
+    <workbookView xWindow="4110" yWindow="4110" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="2" xr2:uid="{8B859529-1372-45A7-8F7A-15D081915221}"/>
   </bookViews>
   <sheets>
     <sheet name="(Original)Protección Infa y gen" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="78">
   <si>
     <r>
       <t>Matrimonio infantil (%)</t>
@@ -506,12 +506,6 @@
     <t>2012–2018*</t>
   </si>
   <si>
-    <t>casadas a los 15</t>
-  </si>
-  <si>
-    <t>casadas a los 18</t>
-  </si>
-  <si>
     <t>Justificación del maltrato a la esposa entre los adolescentes (%)</t>
   </si>
   <si>
@@ -525,13 +519,85 @@
   </si>
   <si>
     <t>Disciplina violenta (%)</t>
+  </si>
+  <si>
+    <t>Casadas a los 15</t>
+  </si>
+  <si>
+    <t>Casadas a los 18</t>
+  </si>
+  <si>
+    <t>Casados a los 18</t>
+  </si>
+  <si>
+    <t>Notas</t>
+  </si>
+  <si>
+    <t>– Datos no disponibles</t>
+  </si>
+  <si>
+    <t>p Basado en denominadores pequeños (típicamente 25-49 casos no ponderados). Ningún dato basado en menos de 25 casos no ponderados es mostrado.</t>
+  </si>
+  <si>
+    <t>v Estimados del 100% fueron asumidos dado que los servicios de registro civil en estos países están completos y todos los eventos vitales (incluidos los nacimientos) están registrados. Fuente: Naciones Unidas, Departamento de Asuntos Económicos y Sociales, Dvisión de Estadística, última actualización Diciembre 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x Datos refieren a años o períodos distintos a los que se especifican en el título de las columnas. Esos datos no son incluidos en los cálculos de promedios regionales o globales. Datos de años anteriores al 2000 no son mostrados. </t>
+  </si>
+  <si>
+    <t>y Datos difieren de la definición estándar o refieren a una parte de un país. Si caen dentro del período de tiempo indicado, entonces esos datos son incluidos en el cálculo de promedios regionales y globales</t>
+  </si>
+  <si>
+    <t>+ Una explicación más detallada de la metodología y los cambios en los cálculos de estos estimados pueden encontrarse en la Nota General en el Data, página 180</t>
+  </si>
+  <si>
+    <t>* Datos refieren al año disponible más reciente durante el período especificado en el título de las columnas</t>
+  </si>
+  <si>
+    <t>Los datos en itálica son de fuentes más viejas con respecto a los otros datos presentados en esta tabla. Estas discrepancias pueden deberse a que un indicador no estaba disponible en la última fuente utilizada, o a que las bases de datos para cada indicador fueron actualizadas en diferentes fechas</t>
+  </si>
+  <si>
+    <t>Definiciones de los indicadores:</t>
+  </si>
+  <si>
+    <t>Trabajo Infantil: porcentaje de niños de 5-17 años involucrados en trabajo infantil en el momento de la encuesta. Se considera que un niño está involucrado en trabajo infantil en las siguientes condiciones: (a) niños de 5 a 11 años que, durante la semana de referencia, realizaron al menos una hora de actividad económica y / o más de 21 horas de servicios domésticos no remunerados , (b) niños de 12 a 14 años que, durante la semana de referencia, realizaron al menos 14 horas de actividad económica y / o más de 21 horas de servicios domésticos no remunerados, (c) niños de 15 a 17 años que, durante la semana de referencia, realizó al menos 43 horas de actividad económica.</t>
+  </si>
+  <si>
+    <t>Matrimonio Infantil: porcetaje de mujeres de 20-24 años que se casaron antes de los 15 años; porcentaje de mujeres de 20-24 años que se casaron antes de los 18 años; porcentaje de hombres de 20-24 años que se casaron antes de los 18 años</t>
+  </si>
+  <si>
+    <t>Justificación del maltrato a la esposa entre los adolescentes: porcentaje de niñas y niños de 15-19 años que consideran que se justifica que un esposo le pegue a su esposa por al menos una de esas razones: si su esposa quema la comida, discute con él, sale sin decirle, descuida a los niños o se resiste a tener relaciones sexuales</t>
+  </si>
+  <si>
+    <t>Disciplina violenta: porcentaje de niños de 1-14 años que sufren cualquier tipo de disciplina violenta (agresión psicológica y/o castigo físico) en el último mes</t>
+  </si>
+  <si>
+    <t>Violencia sexual en la infancia: porcentaje de mujeres y hombres de 18-29 años que sufrieron de violencia sexual antes de cumplir 18 años</t>
+  </si>
+  <si>
+    <t>Principales fuentes de datos:</t>
+  </si>
+  <si>
+    <t>Trabajo Infantil: Demographic and Health Surveys (DHS), Multiple Indicator Cluster Surveys (MICS) and other national surveys. Last update: March 2019.</t>
+  </si>
+  <si>
+    <t>Matrimonio Infantil: DHS, MICS and other national surveys. Last update: (female) March 2019; (male) August 2019.</t>
+  </si>
+  <si>
+    <t>Justificación del maltrato a la esposa entre los adolescentes:  DHS, MICS and other national surveys. Last update: August 2019.</t>
+  </si>
+  <si>
+    <t>Disciplina violenta: DHS, MICS and other national surveys. Last update: March 2019.</t>
+  </si>
+  <si>
+    <t>Violencia sexual en la infancia: DHS and other national surveys. Last update: March 2019.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -583,6 +649,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -592,12 +666,25 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -609,7 +696,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -637,6 +724,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -799,9 +889,9 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D6D3523E-1A9E-48CE-B16D-8381E86DC424}" name="Categoría" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{DC63531F-BA77-474A-9D1E-9337255C4440}" name="Variable" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{291F4642-DCF1-44AC-84EA-B659E7828E73}" name="Sexo" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{291F4642-DCF1-44AC-84EA-B659E7828E73}" name="Sexo" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{EA1F4382-166A-48C9-AA4F-A8D0FD14AE86}" name="Fecha" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{B9A83361-33C4-40F2-B610-11D430D34CB7}" name="Cantidad" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{B9A83361-33C4-40F2-B610-11D430D34CB7}" name="Cantidad" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1204,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086AB14F-7EE7-4752-8776-ABC71B0E10C2}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1215,16 +1305,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" t="s">
         <v>45</v>
       </c>
       <c r="E1" s="12" t="s">
@@ -1232,16 +1322,16 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" t="s">
         <v>48</v>
       </c>
       <c r="E2" s="12">
@@ -1249,16 +1339,16 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" t="s">
         <v>48</v>
       </c>
       <c r="E3" s="12">
@@ -1266,42 +1356,40 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="12" t="s">
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" t="s">
         <v>48</v>
       </c>
       <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12" t="s">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" t="s">
         <v>48</v>
       </c>
       <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12" t="s">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" t="s">
         <v>48</v>
       </c>
       <c r="E6" s="12">
@@ -1309,27 +1397,25 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12" t="s">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" t="s">
         <v>48</v>
       </c>
       <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12" t="s">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" t="s">
         <v>48</v>
       </c>
       <c r="E8" s="12">
@@ -1337,79 +1423,73 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12" t="s">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" t="s">
         <v>48</v>
       </c>
       <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12" t="s">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" t="s">
         <v>48</v>
       </c>
       <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12" t="s">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" t="s">
         <v>48</v>
       </c>
       <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12" t="s">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" t="s">
         <v>48</v>
       </c>
       <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12" t="s">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" t="s">
         <v>48</v>
       </c>
       <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12" t="s">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" t="s">
         <v>48</v>
       </c>
       <c r="E14" s="12">
@@ -1426,142 +1506,208 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643E17E1-DD5D-4838-B501-888C46745923}">
-  <dimension ref="A1:A27"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L1" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L7" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L11" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L16" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="L18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="L21" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="L22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="L23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="L24" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="L25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="L26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
         <v>32</v>
       </c>
     </row>
